--- a/src/result/asientos_generados.xlsx
+++ b/src/result/asientos_generados.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML_CONTABILIDAD_AUTOMATICA\src\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6B340-1CBD-45E8-AD4A-57D8F9D1F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D37B9A-1648-4F3D-8983-913EAAF6A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="270">
   <si>
     <t>Punteo</t>
   </si>
@@ -115,27 +128,9 @@
     <t>Genera asiento contable: 2024-12-23 P.SERV. TRF. AJENA -0.2 nan</t>
   </si>
   <si>
-    <t>ADQ. 1 UNIT KANTOX EUROPEAN UNION, S.L.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2024-12-23 TRF.INTERNACIONAL -110.38 KANTOX EUROPEAN UNION SL</t>
   </si>
   <si>
-    <t>ADQ. 1 UNIT LAKEVIEW PARTNERS S.R.L.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2024-12-23 TRF.INTERNACIONAL -43500.0 LAKEVIEW PARTNERS S.R.L.</t>
-  </si>
-  <si>
-    <t>ADQ. 1 UNIT LAKEVIEW PARTNERS S.R.</t>
-  </si>
-  <si>
-    <t>ADQ. 1 UNIT ENlace Capital, S.L.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2024-12-23 Ampliacion de Cap -16400.0 Enlace Capital, S.L.</t>
-  </si>
-  <si>
     <t>PAGO S/F 20/12/2024 NUM 2024/2024</t>
   </si>
   <si>
@@ -154,12 +149,6 @@
     <t>Genera asiento contable: 2024-12-19 TRANSF.DIVISAS 20212.96 MOORFIELDS ADVISORY LIMITED INSO</t>
   </si>
   <si>
-    <t>PRIMA SCOOLINARY, S.L.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2024-12-17 Prestamo Particip -50000.0 SCOOLINARY, S.L.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2024-12-17 P.SERV. TRF. AJENA -0.2 nan</t>
   </si>
   <si>
@@ -193,9 +182,6 @@
     <t>S/F 30/12/2024 NUM 610.8</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2024-12-11 Factura pendiente -610.8 Alexandra Gutierrez de Cabiedes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">S/F 30/12/2024 NUM 610.8, </t>
   </si>
   <si>
@@ -214,18 +200,9 @@
     <t>Genera asiento contable: 2024-12-10 IBERIA CARDS -35.49 A83289819000</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2024-12-10 TRANSF. A SU FAVOR 568.99 00810086-ROAD CAPITAL S.L.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2024-12-10 IBERIA CARDS -400.02 A83289819000</t>
   </si>
   <si>
-    <t>ADQ. 1 UNIT Fidelis Capital Partners, S.L.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2024-12-08 Ampliacion de Cap -27500.0 Fidelis Capital Partners, S.L.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2024-12-08 P.SERV. TRF. AJENA -0.2 nan</t>
   </si>
   <si>
@@ -277,27 +254,9 @@
     <t>Genera asiento contable: 2025-04-01 ADMINISTRACIÓN DEP. -3.6 nan</t>
   </si>
   <si>
-    <t>PRIMA DE SALUD SANITAS</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2025-04-01 SANITAS S A SEG. -743.75 Recibo entidad de previsión</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-04-01 PAG NOMINAS -3271.06 8650-55-0001538-56 000181 000001</t>
   </si>
   <si>
-    <t>ADQ. 1 UNIT CABIEDES AND PARTNERS IV SCR S.A.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2025-04-01 Aportacion de CAB -333.5 CABIEDES AND PARTNERS IV SCR S.A.</t>
-  </si>
-  <si>
-    <t>ADQ. 1 UNIT CABIEDES AND PARTNERS IV SCR, S.A.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2025-04-01 Aportacion de CAB -333.5 CABIEDES AND PARTNERS IV SCR, S.A.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-04-01 ADMINISTRACIÓN DEP. -3.0 nan</t>
   </si>
   <si>
@@ -319,9 +278,6 @@
     <t>ADQ. 1 UNIT INV - 501501</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-03-31 Aportacion de INV -530.4 Inversiones Cabiedes, S.L.</t>
-  </si>
-  <si>
     <t>ADQ. 1 UNIT INV 501501</t>
   </si>
   <si>
@@ -331,18 +287,9 @@
     <t>Genera asiento contable: 2025-03-31 TRF.INTERNACIONAL -131.21 KANTOX EUROPEAN UNION SL</t>
   </si>
   <si>
-    <t>KANTOX EUROPEAN UNION, S.L.</t>
-  </si>
-  <si>
     <t>S/F 31/03/2025 NUM 12</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-03-31 Curso 12 horas co -10000.0 ENTAINA DIGITAL, S.L.</t>
-  </si>
-  <si>
-    <t>ENTAINA DIGITAL, S.L.</t>
-  </si>
-  <si>
     <t>REGISTRO MERCANTIL DE MADRID</t>
   </si>
   <si>
@@ -421,12 +368,6 @@
     <t>Genera asiento contable: 2025-03-11 TRASPASO 500.0 nan</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-03-11 TRANSF. A SU FAVOR 500.0 01287680-VESTA CAPITAL PARTNERS</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2025-03-10 Aportacion de INV -530.4 Inversiones Cabiedes, S.L.</t>
-  </si>
-  <si>
     <t>S/F 31/03/2025 NUM A83289819000000</t>
   </si>
   <si>
@@ -439,12 +380,6 @@
     <t>Genera asiento contable: 2025-03-10 IBERIA CARDS -230.49 A83289819000</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-03-10 Aportacion de CAB -333.5 CABIEDES AND PARTNERS IV SCR S.A.</t>
-  </si>
-  <si>
-    <t>Genera asiento contable: 2025-03-10 Aportacion de CAB -333.5 CABIEDES AND PARTNERS IV SCR, S.A.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-03-10 IBERIA CARDS -296.11 A83289819000</t>
   </si>
   <si>
@@ -493,9 +428,6 @@
     <t>Genera asiento contable: 2025-03-03 TRASPASO 3172.5 nan</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-03-03 SANITAS S A SEG. -743.75 Recibo entidad de previsión</t>
-  </si>
-  <si>
     <t>PRÉSTAMO LUIS MARTIN</t>
   </si>
   <si>
@@ -544,9 +476,6 @@
     <t>Genera asiento contable: 2025-02-26 PAG NOMINAS -3271.06 8650-55-0001538-56 000180 000001</t>
   </si>
   <si>
-    <t>PAGO NOMINAS, S.L.</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-02-25 TRASPASO 10000.0 nan</t>
   </si>
   <si>
@@ -586,9 +515,6 @@
     <t>Genera asiento contable: 2025-02-04 O-8T55NPPVF -45245.55 Kantox European Union SL</t>
   </si>
   <si>
-    <t>ADQ. 1 UNIT PARTNERS, S.L.</t>
-  </si>
-  <si>
     <t>S/F 31/05/2023 NUM A83289819000000</t>
   </si>
   <si>
@@ -604,9 +530,6 @@
     <t>Genera asiento contable: 2025-02-03 IBERIA CARDS -1343.68 A83289819000</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-02-03 SANITAS S A SEG. -743.75 Recibo entidad de previsión</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-02-03 IBERIA CARDS -624.14 A83289819000</t>
   </si>
   <si>
@@ -616,9 +539,6 @@
     <t>Genera asiento contable: 2025-01-31 TGSS.COTIZACION 0 -720.6 Q2827003A005</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-31 TRANSF. A SU FAVOR 330000.0 00810569-INVERSIONES CABIEDES SL</t>
-  </si>
-  <si>
     <t>Genera asiento contable: 2025-01-31 TGSS.COTIZACION 0 -294.56 Q2827003A001</t>
   </si>
   <si>
@@ -673,27 +593,15 @@
     <t>S/F 30/01/2025 NUM A 239580</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-24 Factura A 239580 -12.55 INTERNACIONAL M. CURIER, S.L.U</t>
-  </si>
-  <si>
-    <t>INTERNACIONAL M. CURIER, S.L.U.</t>
-  </si>
-  <si>
     <t>S/F 30/01/2025 NUM IFC2411-01-0327</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-24 Factura IFC2411-0 -281.69 Cualtis S.L. Unipersonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">S/F 30/01/2025 NUM IFC2411-01-0, </t>
   </si>
   <si>
     <t>DEVOLUCIN TRANSFERENCIA</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-24 Devolucion a IC p -15970.16 Inversiones Cabiedes, S.L.</t>
-  </si>
-  <si>
     <t>S/F 31/01/2025 NUM 3996.73</t>
   </si>
   <si>
@@ -727,9 +635,6 @@
     <t>Genera asiento contable: 2025-01-20 I.R.P.F. MOD.111 -5606.95 Q2826000H111</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-17 TRANSF. A SU FAVOR 1790.49 00491809-CABIEDES PARTNERS SCR D</t>
-  </si>
-  <si>
     <t>S/F 31/01/2025 NUM B87078978/123/2024/4T</t>
   </si>
   <si>
@@ -745,9 +650,6 @@
     <t>Genera asiento contable: 2025-01-16 IMPUESTOS AEAT -11024.61 B87078978/111/2024/4T/</t>
   </si>
   <si>
-    <t>IMPUESTOS ABOGADOS, S.L.</t>
-  </si>
-  <si>
     <t>S/F 31/01/2025 NUM A85788255/991/2000/</t>
   </si>
   <si>
@@ -808,9 +710,6 @@
     <t>Genera asiento contable: 2025-01-02 MOV.600482694.ENE -193.97 Recibo de teléfono</t>
   </si>
   <si>
-    <t>Genera asiento contable: 2025-01-02 SANITAS S A SEG. -757.1 Recibo entidad de previsión</t>
-  </si>
-  <si>
     <t>S/F 31/01/2025 NUM 2025-200000000</t>
   </si>
   <si>
@@ -827,6 +726,123 @@
   </si>
   <si>
     <t>Genera asiento contable: 2025-01-01 CUSTODIA VALORES -6415.78 nan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT LAKEVIEW ASOCIADOS S.R.L.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-23 TRF.INTERNACIONAL -43500.0 LAKEVIEW ASOCIADOS S.R.L.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT LAKEVIEW ASOCIADOS S.R.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-11 TRANSF. A SU FAVOR 500.0 01287680-VESTA CAPITAL ASOCIADOS</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-11 Factura pendiente -610.8 Alexandra Gutierrez de ENTERPRISE.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT ENTERPRISE AND ASOCIADOS IV SCR S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-04-01 Aportacion de CAB -333.5 ENTERPRISE AND ASOCIADOS IV SCR S.A.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT ENTERPRISE AND ASOCIADOS IV SCR, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-04-01 Aportacion de CAB -333.5 ENTERPRISE AND ASOCIADOS IV SCR, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-10 Aportacion de CAB -333.5 ENTERPRISE AND ASOCIADOS IV SCR S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-10 Aportacion de CAB -333.5 ENTERPRISE AND ASOCIADOS IV SCR, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-31 TRANSF. A SU FAVOR 330000.0 00810569-INVERSIONES ENTERPRISE SL</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-17 TRANSF. A SU FAVOR 1790.49 00491809-ENTERPRISE ASOCIADOS SCR D</t>
+  </si>
+  <si>
+    <t>PRIMA DE SALUD SEGUROS</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-04-01 SEGUROS S A SEG. -743.75 Recibo entidad de previsión</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-03 SEGUROS S A SEG. -743.75 Recibo entidad de previsión</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-02-03 SEGUROS S A SEG. -743.75 Recibo entidad de previsión</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-02 SEGUROS S A SEG. -757.1 Recibo entidad de previsión</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT KANTOX EUROPEAN UNION, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT ENlace Capital, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-23 Ampliacion de Cap -16400.0 Enlace Capital, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>PRIMA SCOOLINARY, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-17 Prestamo Particip -50000.0 SCOOLINARY, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-10 TRANSF. A SU FAVOR 568.99 00810086-ROAD CAPITAL FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT Fidelis Capital ASOCIADOS, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2024-12-08 Ampliacion de Cap -27500.0 Fidelis Capital ASOCIADOS, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-31 Aportacion de INV -530.4 Inversiones ENTERPRISE, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>KANTOX EUROPEAN UNION, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-31 Curso 12 horas co -10000.0 ENTAINA DIGITAL, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ENTAINA DIGITAL, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-03-10 Aportacion de INV -530.4 Inversiones ENTERPRISE, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>PAGO NOMINAS, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ADQ. 1 UNIT ASOCIADOS, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-24 Factura A 239580 -12.55 INTERNACIONAL M. CURIER, FAKE, S.A.U</t>
+  </si>
+  <si>
+    <t>INTERNACIONAL M. CURIER, FAKE, S.A.U.</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-24 Factura IFC2411-0 -281.69 Cualtis FAKE, S.A. Unipersonal</t>
+  </si>
+  <si>
+    <t>Genera asiento contable: 2025-01-24 Devolucion a IC p -15970.16 Inversiones ENTERPRISE, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>IMPUESTOS ABOGADOS, FAKE, S.A.</t>
   </si>
 </sst>
 </file>
@@ -834,7 +850,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -848,6 +864,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -890,7 +907,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,7 +1212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1270,8 +1289,11 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
       <c r="K2">
-        <v>14507.65</v>
+        <v>971.18</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1306,7 +1328,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14507.65</v>
+        <v>971.18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1341,7 +1366,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2499.25</v>
+        <v>170.62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>231</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1375,8 +1403,11 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
       <c r="K5">
-        <v>2499.25</v>
+        <v>170.62</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1411,7 +1442,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>718.3</v>
+        <v>51.89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>231</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1445,8 +1479,11 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7" t="s">
+        <v>231</v>
+      </c>
       <c r="K7">
-        <v>718.3</v>
+        <v>51.89</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1481,7 +1518,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>294.56</v>
+        <v>23.64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>231</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1515,8 +1555,11 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
       <c r="K9">
-        <v>294.56</v>
+        <v>23.64</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1551,7 +1594,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1187.67</v>
+        <v>83.18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>231</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1585,8 +1631,11 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11" t="s">
+        <v>231</v>
+      </c>
       <c r="K11">
-        <v>1187.67</v>
+        <v>83.18</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1620,8 +1669,11 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
       <c r="K12">
-        <v>25037.11</v>
+        <v>1673.14</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1656,7 +1708,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25037.11</v>
+        <v>1673.14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>231</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1690,8 +1745,11 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>231</v>
+      </c>
       <c r="K14">
-        <v>70000</v>
+        <v>4670.67</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1726,7 +1784,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>70000</v>
+        <v>4670.67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>231</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1760,8 +1821,11 @@
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
       <c r="K16">
-        <v>1760.98</v>
+        <v>121.4</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1796,7 +1860,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1760.98</v>
+        <v>121.4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>231</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1830,8 +1897,11 @@
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18" t="s">
+        <v>231</v>
+      </c>
       <c r="K18">
-        <v>2821.36</v>
+        <v>192.09</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1866,7 +1936,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2821.36</v>
+        <v>192.09</v>
+      </c>
+      <c r="K19" t="s">
+        <v>231</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1900,8 +1973,11 @@
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20" t="s">
+        <v>231</v>
+      </c>
       <c r="K20">
-        <v>928.55</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1936,7 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>928.55</v>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K21" t="s">
+        <v>231</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1970,8 +2049,11 @@
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22" t="s">
+        <v>231</v>
+      </c>
       <c r="K22">
-        <v>3280.65</v>
+        <v>222.71</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2006,7 +2088,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3280.65</v>
+        <v>222.71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2040,8 +2125,11 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
       <c r="K24">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2076,7 +2164,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2110,8 +2201,11 @@
       <c r="I26">
         <v>0</v>
       </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2146,7 +2240,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2169,25 +2266,28 @@
         <v>2722</v>
       </c>
       <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28">
+        <v>11.36</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>31</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>110.38</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,25 +2304,28 @@
         <v>2722</v>
       </c>
       <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>11.36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>31</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>110.38</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2239,7 +2342,7 @@
         <v>2722</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2250,14 +2353,17 @@
       <c r="I30">
         <v>0</v>
       </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
       <c r="K30">
-        <v>43500</v>
+        <v>2904</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2274,7 +2380,7 @@
         <v>2722</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2286,13 +2392,16 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>43500</v>
+        <v>2904</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2320,8 +2429,11 @@
       <c r="I32">
         <v>0</v>
       </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
       <c r="K32">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2356,7 +2468,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2390,8 +2505,11 @@
       <c r="I34">
         <v>0</v>
       </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2426,7 +2544,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K35" t="s">
+        <v>231</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2460,8 +2581,11 @@
       <c r="I36">
         <v>0</v>
       </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
       <c r="K36">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2496,7 +2620,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K37" t="s">
+        <v>231</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2530,8 +2657,11 @@
       <c r="I38">
         <v>0</v>
       </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
       <c r="K38">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2566,7 +2696,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K39" t="s">
+        <v>231</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2600,8 +2733,11 @@
       <c r="I40">
         <v>0</v>
       </c>
+      <c r="J40" t="s">
+        <v>231</v>
+      </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2636,7 +2772,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K41" t="s">
+        <v>231</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2659,7 +2798,7 @@
         <v>2722</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2671,13 +2810,16 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>16400</v>
+        <v>1097.33</v>
+      </c>
+      <c r="K42" t="s">
+        <v>231</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2694,7 +2836,7 @@
         <v>2722</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2705,14 +2847,17 @@
       <c r="I43">
         <v>0</v>
       </c>
+      <c r="J43" t="s">
+        <v>231</v>
+      </c>
       <c r="K43">
-        <v>16400</v>
+        <v>1097.33</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2740,8 +2885,11 @@
       <c r="I44">
         <v>0</v>
       </c>
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
       <c r="K44">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2776,7 +2924,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K45" t="s">
+        <v>231</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2810,8 +2961,11 @@
       <c r="I46">
         <v>0</v>
       </c>
+      <c r="J46" t="s">
+        <v>231</v>
+      </c>
       <c r="K46">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2846,7 +3000,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K47" t="s">
+        <v>231</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -2880,8 +3037,11 @@
       <c r="I48">
         <v>0</v>
       </c>
+      <c r="J48" t="s">
+        <v>231</v>
+      </c>
       <c r="K48">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -2916,7 +3076,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K49" t="s">
+        <v>231</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -2950,8 +3113,11 @@
       <c r="I50">
         <v>0</v>
       </c>
+      <c r="J50" t="s">
+        <v>231</v>
+      </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -2986,7 +3152,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K51" t="s">
+        <v>231</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3009,7 +3178,7 @@
         <v>2722</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3021,13 +3190,16 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>11253.52</v>
+        <v>754.23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>231</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3044,7 +3216,7 @@
         <v>2722</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3055,14 +3227,17 @@
       <c r="I53">
         <v>0</v>
       </c>
+      <c r="J53" t="s">
+        <v>231</v>
+      </c>
       <c r="K53">
-        <v>11253.52</v>
+        <v>754.23</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3079,7 +3254,7 @@
         <v>2522</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3091,13 +3266,16 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>4.07</v>
+      </c>
+      <c r="K54" t="s">
+        <v>231</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3114,7 +3292,7 @@
         <v>2522</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3125,14 +3303,17 @@
       <c r="I55">
         <v>0</v>
       </c>
+      <c r="J55" t="s">
+        <v>231</v>
+      </c>
       <c r="K55">
-        <v>1</v>
+        <v>4.07</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3160,14 +3341,17 @@
       <c r="I56">
         <v>0</v>
       </c>
+      <c r="J56" t="s">
+        <v>231</v>
+      </c>
       <c r="K56">
-        <v>20212.96</v>
+        <v>1351.53</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3196,13 +3380,16 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>20212.96</v>
+        <v>1351.53</v>
+      </c>
+      <c r="K57" t="s">
+        <v>231</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,7 +3406,7 @@
         <v>2722</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3230,14 +3417,17 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="J58" t="s">
+        <v>231</v>
+      </c>
       <c r="K58">
-        <v>50000</v>
+        <v>3337.33</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,7 +3444,7 @@
         <v>2722</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3266,13 +3456,16 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>50000</v>
+        <v>3337.33</v>
+      </c>
+      <c r="K59" t="s">
+        <v>231</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3300,14 +3493,17 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60" t="s">
+        <v>231</v>
+      </c>
       <c r="K60">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3336,13 +3532,16 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K61" t="s">
+        <v>231</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3359,7 +3558,7 @@
         <v>2522</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3370,14 +3569,17 @@
       <c r="I62">
         <v>0</v>
       </c>
+      <c r="J62" t="s">
+        <v>231</v>
+      </c>
       <c r="K62">
-        <v>23586.34</v>
+        <v>1576.42</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3394,7 +3596,7 @@
         <v>2522</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3406,13 +3608,16 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>23586.34</v>
+        <v>1576.42</v>
+      </c>
+      <c r="K63" t="s">
+        <v>231</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3440,14 +3645,17 @@
       <c r="I64">
         <v>0</v>
       </c>
+      <c r="J64" t="s">
+        <v>231</v>
+      </c>
       <c r="K64">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3476,13 +3684,16 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K65" t="s">
+        <v>231</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3499,7 +3710,7 @@
         <v>2722</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3510,14 +3721,17 @@
       <c r="I66">
         <v>0</v>
       </c>
+      <c r="J66" t="s">
+        <v>231</v>
+      </c>
       <c r="K66">
-        <v>200</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3534,7 +3748,7 @@
         <v>2722</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3546,13 +3760,16 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>200</v>
+        <v>17.329999999999998</v>
+      </c>
+      <c r="K67" t="s">
+        <v>231</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,14 +3797,17 @@
       <c r="I68">
         <v>0</v>
       </c>
+      <c r="J68" t="s">
+        <v>231</v>
+      </c>
       <c r="K68">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3616,13 +3836,16 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K69" t="s">
+        <v>231</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3651,13 +3874,16 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>131237</v>
+        <v>8753.1299999999992</v>
+      </c>
+      <c r="K70" t="s">
+        <v>231</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3685,14 +3911,17 @@
       <c r="I71">
         <v>0</v>
       </c>
+      <c r="J71" t="s">
+        <v>231</v>
+      </c>
       <c r="K71">
-        <v>131237</v>
+        <v>8753.1299999999992</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3709,7 +3938,7 @@
         <v>2722</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3721,13 +3950,16 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>36452</v>
+        <v>2434.13</v>
+      </c>
+      <c r="K72" t="s">
+        <v>231</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3744,7 +3976,7 @@
         <v>2722</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3755,14 +3987,17 @@
       <c r="I73">
         <v>0</v>
       </c>
+      <c r="J73" t="s">
+        <v>231</v>
+      </c>
       <c r="K73">
-        <v>36452</v>
+        <v>2434.13</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3790,14 +4025,17 @@
       <c r="I74">
         <v>0</v>
       </c>
+      <c r="J74" t="s">
+        <v>231</v>
+      </c>
       <c r="K74">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3826,13 +4064,16 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K75" t="s">
+        <v>231</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3849,7 +4090,7 @@
         <v>2522</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3860,14 +4101,17 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76" t="s">
+        <v>231</v>
+      </c>
       <c r="K76">
-        <v>3573.13</v>
+        <v>242.21</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3884,7 +4128,7 @@
         <v>2522</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3896,13 +4140,16 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>3573.13</v>
+        <v>242.21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>231</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3919,7 +4166,7 @@
         <v>2522</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3930,14 +4177,17 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78" t="s">
+        <v>231</v>
+      </c>
       <c r="K78">
-        <v>610.79999999999995</v>
+        <v>44.72</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3954,7 +4204,7 @@
         <v>2522</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3966,13 +4216,16 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>610.79999999999995</v>
+        <v>44.72</v>
+      </c>
+      <c r="K79" t="s">
+        <v>231</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4000,14 +4253,17 @@
       <c r="I80">
         <v>0</v>
       </c>
+      <c r="J80" t="s">
+        <v>231</v>
+      </c>
       <c r="K80">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4036,13 +4292,16 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K81" t="s">
+        <v>231</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,7 +4318,7 @@
         <v>2522</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -4070,14 +4329,17 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="J82" t="s">
+        <v>231</v>
+      </c>
       <c r="K82">
-        <v>1239.07</v>
+        <v>86.6</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4094,7 +4356,7 @@
         <v>2522</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -4106,13 +4368,16 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1239.07</v>
+        <v>86.6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>231</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4129,7 +4394,7 @@
         <v>2722</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -4140,14 +4405,17 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="J84" t="s">
+        <v>231</v>
+      </c>
       <c r="K84">
-        <v>35.49</v>
+        <v>6.37</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4164,7 +4432,7 @@
         <v>2722</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -4176,13 +4444,16 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>35.49</v>
+        <v>6.37</v>
+      </c>
+      <c r="K85" t="s">
+        <v>231</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4210,14 +4481,17 @@
       <c r="I86">
         <v>0</v>
       </c>
+      <c r="J86" t="s">
+        <v>231</v>
+      </c>
       <c r="K86">
-        <v>568.99</v>
+        <v>41.93</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4246,13 +4520,16 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>568.99</v>
+        <v>41.93</v>
+      </c>
+      <c r="K87" t="s">
+        <v>231</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4269,7 +4546,7 @@
         <v>2722</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -4280,14 +4557,17 @@
       <c r="I88">
         <v>0</v>
       </c>
+      <c r="J88" t="s">
+        <v>231</v>
+      </c>
       <c r="K88">
-        <v>400.02</v>
+        <v>30.67</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4304,7 +4584,7 @@
         <v>2722</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -4316,13 +4596,16 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>400.02</v>
+        <v>30.67</v>
+      </c>
+      <c r="K89" t="s">
+        <v>231</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4339,7 +4622,7 @@
         <v>2722</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -4351,13 +4634,16 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>27500</v>
+        <v>1837.33</v>
+      </c>
+      <c r="K90" t="s">
+        <v>231</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4374,7 +4660,7 @@
         <v>2722</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -4385,14 +4671,17 @@
       <c r="I91">
         <v>0</v>
       </c>
+      <c r="J91" t="s">
+        <v>231</v>
+      </c>
       <c r="K91">
-        <v>27500</v>
+        <v>1837.33</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4420,14 +4709,17 @@
       <c r="I92">
         <v>0</v>
       </c>
+      <c r="J92" t="s">
+        <v>231</v>
+      </c>
       <c r="K92">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4456,13 +4748,16 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K93" t="s">
+        <v>231</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4490,14 +4785,17 @@
       <c r="I94">
         <v>0</v>
       </c>
+      <c r="J94" t="s">
+        <v>231</v>
+      </c>
       <c r="K94">
-        <v>70000</v>
+        <v>4670.67</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4526,13 +4824,16 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>70000</v>
+        <v>4670.67</v>
+      </c>
+      <c r="K95" t="s">
+        <v>231</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4549,7 +4850,7 @@
         <v>2722</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -4560,14 +4861,17 @@
       <c r="I96">
         <v>0</v>
       </c>
+      <c r="J96" t="s">
+        <v>231</v>
+      </c>
       <c r="K96">
-        <v>10.39</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,7 +4888,7 @@
         <v>2722</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -4596,13 +4900,16 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>10.39</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K97" t="s">
+        <v>231</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4619,7 +4926,7 @@
         <v>2722</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -4630,14 +4937,17 @@
       <c r="I98">
         <v>0</v>
       </c>
+      <c r="J98" t="s">
+        <v>231</v>
+      </c>
       <c r="K98">
-        <v>63.46</v>
+        <v>8.23</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4654,7 +4964,7 @@
         <v>2722</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -4666,13 +4976,16 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>63.46</v>
+        <v>8.23</v>
+      </c>
+      <c r="K99" t="s">
+        <v>231</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4689,7 +5002,7 @@
         <v>2722</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -4701,13 +5014,16 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>10</v>
+        <v>4.67</v>
+      </c>
+      <c r="K100" t="s">
+        <v>231</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4724,7 +5040,7 @@
         <v>2722</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -4735,14 +5051,17 @@
       <c r="I101">
         <v>0</v>
       </c>
+      <c r="J101" t="s">
+        <v>231</v>
+      </c>
       <c r="K101">
-        <v>10</v>
+        <v>4.67</v>
       </c>
       <c r="L101">
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4759,7 +5078,7 @@
         <v>2722</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -4771,13 +5090,16 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>4.07</v>
+      </c>
+      <c r="K102" t="s">
+        <v>231</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4794,7 +5116,7 @@
         <v>2722</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -4805,14 +5127,17 @@
       <c r="I103">
         <v>0</v>
       </c>
+      <c r="J103" t="s">
+        <v>231</v>
+      </c>
       <c r="K103">
-        <v>1</v>
+        <v>4.07</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4829,7 +5154,7 @@
         <v>2722</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4840,14 +5165,17 @@
       <c r="I104">
         <v>0</v>
       </c>
+      <c r="J104" t="s">
+        <v>231</v>
+      </c>
       <c r="K104">
-        <v>41774.97</v>
+        <v>2789</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4864,7 +5192,7 @@
         <v>2722</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -4876,13 +5204,16 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>41774.97</v>
+        <v>2789</v>
+      </c>
+      <c r="K105" t="s">
+        <v>231</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4899,7 +5230,7 @@
         <v>2795</v>
       </c>
       <c r="F106" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -4910,14 +5241,17 @@
       <c r="I106">
         <v>0</v>
       </c>
+      <c r="J106" t="s">
+        <v>231</v>
+      </c>
       <c r="K106">
-        <v>2795.24</v>
+        <v>190.35</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4934,7 +5268,7 @@
         <v>2795</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -4946,13 +5280,16 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>2795.24</v>
+        <v>190.35</v>
+      </c>
+      <c r="K107" t="s">
+        <v>231</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4969,7 +5306,7 @@
         <v>1789</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -4980,14 +5317,17 @@
       <c r="I108">
         <v>0</v>
       </c>
+      <c r="J108" t="s">
+        <v>231</v>
+      </c>
       <c r="K108">
-        <v>926.59</v>
+        <v>65.77</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5004,7 +5344,7 @@
         <v>1789</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -5016,13 +5356,16 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>926.59</v>
+        <v>65.77</v>
+      </c>
+      <c r="K109" t="s">
+        <v>231</v>
       </c>
       <c r="L109">
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5039,7 +5382,7 @@
         <v>2722</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -5051,13 +5394,16 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3.6</v>
+        <v>4.24</v>
+      </c>
+      <c r="K110" t="s">
+        <v>231</v>
       </c>
       <c r="L110">
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5074,7 +5420,7 @@
         <v>2722</v>
       </c>
       <c r="F111" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -5085,14 +5431,17 @@
       <c r="I111">
         <v>0</v>
       </c>
+      <c r="J111" t="s">
+        <v>231</v>
+      </c>
       <c r="K111">
-        <v>3.6</v>
+        <v>4.24</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5109,7 +5458,7 @@
         <v>1789</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -5120,14 +5469,17 @@
       <c r="I112">
         <v>0</v>
       </c>
+      <c r="J112" t="s">
+        <v>231</v>
+      </c>
       <c r="K112">
-        <v>743.75</v>
+        <v>53.58</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5144,7 +5496,7 @@
         <v>1789</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -5156,13 +5508,16 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>743.75</v>
+        <v>53.58</v>
+      </c>
+      <c r="K113" t="s">
+        <v>231</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5179,7 +5534,7 @@
         <v>1789</v>
       </c>
       <c r="F114" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -5190,14 +5545,17 @@
       <c r="I114">
         <v>0</v>
       </c>
+      <c r="J114" t="s">
+        <v>231</v>
+      </c>
       <c r="K114">
-        <v>3271.06</v>
+        <v>222.07</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5214,7 +5572,7 @@
         <v>1789</v>
       </c>
       <c r="F115" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -5226,13 +5584,16 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>3271.06</v>
+        <v>222.07</v>
+      </c>
+      <c r="K115" t="s">
+        <v>231</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5249,7 +5610,7 @@
         <v>1789</v>
       </c>
       <c r="F116" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -5261,13 +5622,16 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>333.5</v>
+        <v>26.23</v>
+      </c>
+      <c r="K116" t="s">
+        <v>231</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5284,7 +5648,7 @@
         <v>1789</v>
       </c>
       <c r="F117" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -5295,14 +5659,17 @@
       <c r="I117">
         <v>0</v>
       </c>
+      <c r="J117" t="s">
+        <v>231</v>
+      </c>
       <c r="K117">
-        <v>333.5</v>
+        <v>26.23</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5319,7 +5686,7 @@
         <v>1789</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -5331,13 +5698,16 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>333.5</v>
+        <v>26.23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>231</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5354,7 +5724,7 @@
         <v>1789</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -5365,14 +5735,17 @@
       <c r="I119">
         <v>0</v>
       </c>
+      <c r="J119" t="s">
+        <v>231</v>
+      </c>
       <c r="K119">
-        <v>333.5</v>
+        <v>26.23</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5389,7 +5762,7 @@
         <v>1789</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -5401,13 +5774,16 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>4.2</v>
+      </c>
+      <c r="K120" t="s">
+        <v>231</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5424,7 +5800,7 @@
         <v>1789</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -5435,14 +5811,17 @@
       <c r="I121">
         <v>0</v>
       </c>
+      <c r="J121" t="s">
+        <v>231</v>
+      </c>
       <c r="K121">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5459,7 +5838,7 @@
         <v>2722</v>
       </c>
       <c r="F122" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -5470,14 +5849,17 @@
       <c r="I122">
         <v>0</v>
       </c>
+      <c r="J122" t="s">
+        <v>231</v>
+      </c>
       <c r="K122">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,7 +5876,7 @@
         <v>2722</v>
       </c>
       <c r="F123" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -5506,13 +5888,16 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="K123" t="s">
+        <v>231</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5529,7 +5914,7 @@
         <v>1889</v>
       </c>
       <c r="F124" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -5540,14 +5925,17 @@
       <c r="I124">
         <v>0</v>
       </c>
+      <c r="J124" t="s">
+        <v>231</v>
+      </c>
       <c r="K124">
-        <v>293.16000000000003</v>
+        <v>23.54</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5564,7 +5952,7 @@
         <v>1889</v>
       </c>
       <c r="F125" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -5576,13 +5964,16 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>293.16000000000003</v>
+        <v>23.54</v>
+      </c>
+      <c r="K125" t="s">
+        <v>231</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5599,7 +5990,7 @@
         <v>2898</v>
       </c>
       <c r="F126" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -5610,14 +6001,17 @@
       <c r="I126">
         <v>0</v>
       </c>
+      <c r="J126" t="s">
+        <v>231</v>
+      </c>
       <c r="K126">
-        <v>2898.14</v>
+        <v>197.21</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5634,7 +6028,7 @@
         <v>2898</v>
       </c>
       <c r="F127" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -5646,13 +6040,16 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>2898.14</v>
+        <v>197.21</v>
+      </c>
+      <c r="K127" t="s">
+        <v>231</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5669,7 +6066,7 @@
         <v>1880</v>
       </c>
       <c r="F128" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -5680,14 +6077,17 @@
       <c r="I128">
         <v>0</v>
       </c>
+      <c r="J128" t="s">
+        <v>231</v>
+      </c>
       <c r="K128">
-        <v>530.4</v>
+        <v>39.36</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5704,7 +6104,7 @@
         <v>1880</v>
       </c>
       <c r="F129" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -5716,13 +6116,16 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>530.4</v>
+        <v>39.36</v>
+      </c>
+      <c r="K129" t="s">
+        <v>231</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5739,7 +6142,7 @@
         <v>1889</v>
       </c>
       <c r="F130" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -5750,14 +6153,17 @@
       <c r="I130">
         <v>0</v>
       </c>
+      <c r="J130" t="s">
+        <v>231</v>
+      </c>
       <c r="K130">
-        <v>131.21</v>
+        <v>12.75</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5774,7 +6180,7 @@
         <v>1889</v>
       </c>
       <c r="F131" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -5786,13 +6192,16 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>131.21</v>
+        <v>12.75</v>
+      </c>
+      <c r="K131" t="s">
+        <v>231</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5809,7 +6218,7 @@
         <v>1889</v>
       </c>
       <c r="F132" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -5820,14 +6229,17 @@
       <c r="I132">
         <v>0</v>
       </c>
+      <c r="J132" t="s">
+        <v>231</v>
+      </c>
       <c r="K132">
-        <v>10000</v>
+        <v>670.67</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5844,7 +6256,7 @@
         <v>1889</v>
       </c>
       <c r="F133" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -5856,13 +6268,16 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>10000</v>
+        <v>670.67</v>
+      </c>
+      <c r="K133" t="s">
+        <v>231</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5879,7 +6294,7 @@
         <v>2722</v>
       </c>
       <c r="F134" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -5890,14 +6305,17 @@
       <c r="I134">
         <v>0</v>
       </c>
+      <c r="J134" t="s">
+        <v>231</v>
+      </c>
       <c r="K134">
-        <v>200</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5914,7 +6332,7 @@
         <v>2722</v>
       </c>
       <c r="F135" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -5926,13 +6344,16 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>200</v>
+        <v>17.329999999999998</v>
+      </c>
+      <c r="K135" t="s">
+        <v>231</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5960,14 +6381,17 @@
       <c r="I136">
         <v>0</v>
       </c>
+      <c r="J136" t="s">
+        <v>231</v>
+      </c>
       <c r="K136">
-        <v>10000</v>
+        <v>670.67</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5996,13 +6420,16 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>10000</v>
+        <v>670.67</v>
+      </c>
+      <c r="K137" t="s">
+        <v>231</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +6446,7 @@
         <v>2722</v>
       </c>
       <c r="F138" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -6031,13 +6458,16 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1633.24</v>
+        <v>112.88</v>
+      </c>
+      <c r="K138" t="s">
+        <v>231</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6054,7 +6484,7 @@
         <v>2722</v>
       </c>
       <c r="F139" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -6065,14 +6495,17 @@
       <c r="I139">
         <v>0</v>
       </c>
+      <c r="J139" t="s">
+        <v>231</v>
+      </c>
       <c r="K139">
-        <v>1633.24</v>
+        <v>112.88</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6089,7 +6522,7 @@
         <v>2722</v>
       </c>
       <c r="F140" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6101,13 +6534,16 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>720.6</v>
+        <v>52.04</v>
+      </c>
+      <c r="K140" t="s">
+        <v>231</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6124,7 +6560,7 @@
         <v>2722</v>
       </c>
       <c r="F141" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -6135,14 +6571,17 @@
       <c r="I141">
         <v>0</v>
       </c>
+      <c r="J141" t="s">
+        <v>231</v>
+      </c>
       <c r="K141">
-        <v>720.6</v>
+        <v>52.04</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6159,7 +6598,7 @@
         <v>2722</v>
       </c>
       <c r="F142" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -6171,13 +6610,16 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>307.33999999999997</v>
+        <v>24.49</v>
+      </c>
+      <c r="K142" t="s">
+        <v>231</v>
       </c>
       <c r="L142">
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6194,7 +6636,7 @@
         <v>2722</v>
       </c>
       <c r="F143" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -6205,14 +6647,17 @@
       <c r="I143">
         <v>0</v>
       </c>
+      <c r="J143" t="s">
+        <v>231</v>
+      </c>
       <c r="K143">
-        <v>307.33999999999997</v>
+        <v>24.49</v>
       </c>
       <c r="L143">
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6229,7 +6674,7 @@
         <v>2722</v>
       </c>
       <c r="F144" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -6241,13 +6686,16 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1249.67</v>
+        <v>87.31</v>
+      </c>
+      <c r="K144" t="s">
+        <v>231</v>
       </c>
       <c r="L144">
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6264,7 +6712,7 @@
         <v>2722</v>
       </c>
       <c r="F145" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -6275,14 +6723,17 @@
       <c r="I145">
         <v>0</v>
       </c>
+      <c r="J145" t="s">
+        <v>231</v>
+      </c>
       <c r="K145">
-        <v>1249.67</v>
+        <v>87.31</v>
       </c>
       <c r="L145">
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6299,7 +6750,7 @@
         <v>1780</v>
       </c>
       <c r="F146" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -6311,13 +6762,16 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>3936.23</v>
+        <v>266.42</v>
+      </c>
+      <c r="K146" t="s">
+        <v>231</v>
       </c>
       <c r="L146">
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6334,7 +6788,7 @@
         <v>1780</v>
       </c>
       <c r="F147" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -6345,14 +6799,17 @@
       <c r="I147">
         <v>0</v>
       </c>
+      <c r="J147" t="s">
+        <v>231</v>
+      </c>
       <c r="K147">
-        <v>3936.23</v>
+        <v>266.42</v>
       </c>
       <c r="L147">
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6369,7 +6826,7 @@
         <v>1780</v>
       </c>
       <c r="F148" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -6380,14 +6837,17 @@
       <c r="I148">
         <v>0</v>
       </c>
+      <c r="J148" t="s">
+        <v>231</v>
+      </c>
       <c r="K148">
-        <v>63.33</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="L148">
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6404,7 +6864,7 @@
         <v>1780</v>
       </c>
       <c r="F149" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -6416,13 +6876,16 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>63.33</v>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K149" t="s">
+        <v>231</v>
       </c>
       <c r="L149">
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6439,7 +6902,7 @@
         <v>1780</v>
       </c>
       <c r="F150" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -6450,14 +6913,17 @@
       <c r="I150">
         <v>0</v>
       </c>
+      <c r="J150" t="s">
+        <v>231</v>
+      </c>
       <c r="K150">
-        <v>7.08</v>
+        <v>4.47</v>
       </c>
       <c r="L150">
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6474,7 +6940,7 @@
         <v>1780</v>
       </c>
       <c r="F151" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -6486,13 +6952,16 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>7.08</v>
+        <v>4.47</v>
+      </c>
+      <c r="K151" t="s">
+        <v>231</v>
       </c>
       <c r="L151">
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6509,7 +6978,7 @@
         <v>1780</v>
       </c>
       <c r="F152" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -6520,14 +6989,17 @@
       <c r="I152">
         <v>0</v>
       </c>
+      <c r="J152" t="s">
+        <v>231</v>
+      </c>
       <c r="K152">
-        <v>63.33</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="L152">
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6544,7 +7016,7 @@
         <v>1780</v>
       </c>
       <c r="F153" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -6556,13 +7028,16 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>63.33</v>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K153" t="s">
+        <v>231</v>
       </c>
       <c r="L153">
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6579,7 +7054,7 @@
         <v>1889</v>
       </c>
       <c r="F154" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -6591,13 +7066,16 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>3</v>
+        <v>4.2</v>
+      </c>
+      <c r="K154" t="s">
+        <v>231</v>
       </c>
       <c r="L154">
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6614,7 +7092,7 @@
         <v>1889</v>
       </c>
       <c r="F155" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -6625,14 +7103,17 @@
       <c r="I155">
         <v>0</v>
       </c>
+      <c r="J155" t="s">
+        <v>231</v>
+      </c>
       <c r="K155">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L155">
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -6649,7 +7130,7 @@
         <v>1889</v>
       </c>
       <c r="F156" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -6661,13 +7142,16 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>3</v>
+        <v>4.2</v>
+      </c>
+      <c r="K156" t="s">
+        <v>231</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -6684,7 +7168,7 @@
         <v>1889</v>
       </c>
       <c r="F157" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -6695,14 +7179,17 @@
       <c r="I157">
         <v>0</v>
       </c>
+      <c r="J157" t="s">
+        <v>231</v>
+      </c>
       <c r="K157">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L157">
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -6719,7 +7206,7 @@
         <v>1889</v>
       </c>
       <c r="F158" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -6731,13 +7218,16 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>3</v>
+        <v>4.2</v>
+      </c>
+      <c r="K158" t="s">
+        <v>231</v>
       </c>
       <c r="L158">
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -6754,7 +7244,7 @@
         <v>1889</v>
       </c>
       <c r="F159" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -6765,14 +7255,17 @@
       <c r="I159">
         <v>0</v>
       </c>
+      <c r="J159" t="s">
+        <v>231</v>
+      </c>
       <c r="K159">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L159">
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -6789,7 +7282,7 @@
         <v>1789</v>
       </c>
       <c r="F160" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -6801,13 +7294,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>29166.67</v>
+        <v>1948.44</v>
+      </c>
+      <c r="K160" t="s">
+        <v>231</v>
       </c>
       <c r="L160">
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -6824,7 +7320,7 @@
         <v>1789</v>
       </c>
       <c r="F161" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -6835,14 +7331,17 @@
       <c r="I161">
         <v>0</v>
       </c>
+      <c r="J161" t="s">
+        <v>231</v>
+      </c>
       <c r="K161">
-        <v>29166.67</v>
+        <v>1948.44</v>
       </c>
       <c r="L161">
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -6859,7 +7358,7 @@
         <v>1889</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -6871,13 +7370,16 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>20000</v>
+        <v>1337.33</v>
+      </c>
+      <c r="K162" t="s">
+        <v>231</v>
       </c>
       <c r="L162">
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -6894,7 +7396,7 @@
         <v>1889</v>
       </c>
       <c r="F163" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -6905,14 +7407,17 @@
       <c r="I163">
         <v>0</v>
       </c>
+      <c r="J163" t="s">
+        <v>231</v>
+      </c>
       <c r="K163">
-        <v>20000</v>
+        <v>1337.33</v>
       </c>
       <c r="L163">
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -6929,7 +7434,7 @@
         <v>2522</v>
       </c>
       <c r="F164" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -6941,13 +7446,16 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>5625</v>
+        <v>379</v>
+      </c>
+      <c r="K164" t="s">
+        <v>231</v>
       </c>
       <c r="L164">
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -6964,7 +7472,7 @@
         <v>2522</v>
       </c>
       <c r="F165" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -6975,14 +7483,17 @@
       <c r="I165">
         <v>0</v>
       </c>
+      <c r="J165" t="s">
+        <v>231</v>
+      </c>
       <c r="K165">
-        <v>5625</v>
+        <v>379</v>
       </c>
       <c r="L165">
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,7 +7510,7 @@
         <v>1889</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -7010,14 +7521,17 @@
       <c r="I166">
         <v>0</v>
       </c>
+      <c r="J166" t="s">
+        <v>231</v>
+      </c>
       <c r="K166">
-        <v>0.9</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="L166">
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7034,7 +7548,7 @@
         <v>1889</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -7046,13 +7560,16 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0.9</v>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K167" t="s">
+        <v>231</v>
       </c>
       <c r="L167">
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7080,14 +7597,17 @@
       <c r="I168">
         <v>0</v>
       </c>
+      <c r="J168" t="s">
+        <v>231</v>
+      </c>
       <c r="K168">
-        <v>500</v>
+        <v>37.33</v>
       </c>
       <c r="L168">
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7116,13 +7636,16 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>500</v>
+        <v>37.33</v>
+      </c>
+      <c r="K169" t="s">
+        <v>231</v>
       </c>
       <c r="L169">
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7139,7 +7662,7 @@
         <v>1889</v>
       </c>
       <c r="F170" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -7150,14 +7673,17 @@
       <c r="I170">
         <v>0</v>
       </c>
+      <c r="J170" t="s">
+        <v>231</v>
+      </c>
       <c r="K170">
-        <v>500</v>
+        <v>37.33</v>
       </c>
       <c r="L170">
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7174,7 +7700,7 @@
         <v>1889</v>
       </c>
       <c r="F171" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -7186,13 +7712,16 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>500</v>
+        <v>37.33</v>
+      </c>
+      <c r="K171" t="s">
+        <v>231</v>
       </c>
       <c r="L171">
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7209,7 +7738,7 @@
         <v>1889</v>
       </c>
       <c r="F172" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -7220,14 +7749,17 @@
       <c r="I172">
         <v>0</v>
       </c>
+      <c r="J172" t="s">
+        <v>231</v>
+      </c>
       <c r="K172">
-        <v>500</v>
+        <v>37.33</v>
       </c>
       <c r="L172">
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7244,7 +7776,7 @@
         <v>1889</v>
       </c>
       <c r="F173" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -7256,13 +7788,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>500</v>
+        <v>37.33</v>
+      </c>
+      <c r="K173" t="s">
+        <v>231</v>
       </c>
       <c r="L173">
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,14 +7825,17 @@
       <c r="I174">
         <v>0</v>
       </c>
+      <c r="J174" t="s">
+        <v>231</v>
+      </c>
       <c r="K174">
-        <v>500</v>
+        <v>37.33</v>
       </c>
       <c r="L174">
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7326,13 +7864,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>500</v>
+        <v>37.33</v>
+      </c>
+      <c r="K175" t="s">
+        <v>231</v>
       </c>
       <c r="L175">
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7349,7 +7890,7 @@
         <v>1880</v>
       </c>
       <c r="F176" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -7360,14 +7901,17 @@
       <c r="I176">
         <v>0</v>
       </c>
+      <c r="J176" t="s">
+        <v>231</v>
+      </c>
       <c r="K176">
-        <v>530.4</v>
+        <v>39.36</v>
       </c>
       <c r="L176">
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7384,7 +7928,7 @@
         <v>1880</v>
       </c>
       <c r="F177" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -7396,13 +7940,16 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>530.4</v>
+        <v>39.36</v>
+      </c>
+      <c r="K177" t="s">
+        <v>231</v>
       </c>
       <c r="L177">
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7419,7 +7966,7 @@
         <v>1889</v>
       </c>
       <c r="F178" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -7430,14 +7977,17 @@
       <c r="I178">
         <v>0</v>
       </c>
+      <c r="J178" t="s">
+        <v>231</v>
+      </c>
       <c r="K178">
-        <v>778.84</v>
+        <v>55.92</v>
       </c>
       <c r="L178">
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -7454,7 +8004,7 @@
         <v>1889</v>
       </c>
       <c r="F179" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -7466,13 +8016,16 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>778.84</v>
+        <v>55.92</v>
+      </c>
+      <c r="K179" t="s">
+        <v>231</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -7489,7 +8042,7 @@
         <v>1889</v>
       </c>
       <c r="F180" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -7500,14 +8053,17 @@
       <c r="I180">
         <v>0</v>
       </c>
+      <c r="J180" t="s">
+        <v>231</v>
+      </c>
       <c r="K180">
-        <v>230.49</v>
+        <v>19.37</v>
       </c>
       <c r="L180">
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -7524,7 +8080,7 @@
         <v>1889</v>
       </c>
       <c r="F181" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -7536,13 +8092,16 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>230.49</v>
+        <v>19.37</v>
+      </c>
+      <c r="K181" t="s">
+        <v>231</v>
       </c>
       <c r="L181">
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -7559,7 +8118,7 @@
         <v>1889</v>
       </c>
       <c r="F182" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -7571,13 +8130,16 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>333.5</v>
+        <v>26.23</v>
+      </c>
+      <c r="K182" t="s">
+        <v>231</v>
       </c>
       <c r="L182">
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -7594,7 +8156,7 @@
         <v>1889</v>
       </c>
       <c r="F183" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -7605,14 +8167,17 @@
       <c r="I183">
         <v>0</v>
       </c>
+      <c r="J183" t="s">
+        <v>231</v>
+      </c>
       <c r="K183">
-        <v>333.5</v>
+        <v>26.23</v>
       </c>
       <c r="L183">
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -7629,7 +8194,7 @@
         <v>1889</v>
       </c>
       <c r="F184" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -7641,13 +8206,16 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>333.5</v>
+        <v>26.23</v>
+      </c>
+      <c r="K184" t="s">
+        <v>231</v>
       </c>
       <c r="L184">
         <v>1</v>
       </c>
       <c r="M184" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -7664,7 +8232,7 @@
         <v>1889</v>
       </c>
       <c r="F185" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -7675,14 +8243,17 @@
       <c r="I185">
         <v>0</v>
       </c>
+      <c r="J185" t="s">
+        <v>231</v>
+      </c>
       <c r="K185">
-        <v>333.5</v>
+        <v>26.23</v>
       </c>
       <c r="L185">
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -7699,7 +8270,7 @@
         <v>1889</v>
       </c>
       <c r="F186" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -7710,14 +8281,17 @@
       <c r="I186">
         <v>0</v>
       </c>
+      <c r="J186" t="s">
+        <v>231</v>
+      </c>
       <c r="K186">
-        <v>296.11</v>
+        <v>23.74</v>
       </c>
       <c r="L186">
         <v>1</v>
       </c>
       <c r="M186" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -7734,7 +8308,7 @@
         <v>1889</v>
       </c>
       <c r="F187" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -7746,13 +8320,16 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>296.11</v>
+        <v>23.74</v>
+      </c>
+      <c r="K187" t="s">
+        <v>231</v>
       </c>
       <c r="L187">
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -7769,7 +8346,7 @@
         <v>2722</v>
       </c>
       <c r="F188" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -7780,14 +8357,17 @@
       <c r="I188">
         <v>0</v>
       </c>
+      <c r="J188" t="s">
+        <v>231</v>
+      </c>
       <c r="K188">
-        <v>44.96</v>
+        <v>7</v>
       </c>
       <c r="L188">
         <v>1</v>
       </c>
       <c r="M188" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -7804,7 +8384,7 @@
         <v>2722</v>
       </c>
       <c r="F189" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -7816,13 +8396,16 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>44.96</v>
+        <v>7</v>
+      </c>
+      <c r="K189" t="s">
+        <v>231</v>
       </c>
       <c r="L189">
         <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -7839,7 +8422,7 @@
         <v>1780</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -7850,14 +8433,17 @@
       <c r="I190">
         <v>0</v>
       </c>
+      <c r="J190" t="s">
+        <v>231</v>
+      </c>
       <c r="K190">
-        <v>56907.65</v>
+        <v>3797.84</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -7874,7 +8460,7 @@
         <v>1780</v>
       </c>
       <c r="F191" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -7886,13 +8472,16 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>56907.65</v>
+        <v>3797.84</v>
+      </c>
+      <c r="K191" t="s">
+        <v>231</v>
       </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -7909,7 +8498,7 @@
         <v>1780</v>
       </c>
       <c r="F192" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -7920,14 +8509,17 @@
       <c r="I192">
         <v>0</v>
       </c>
+      <c r="J192" t="s">
+        <v>231</v>
+      </c>
       <c r="K192">
-        <v>31.2</v>
+        <v>6.08</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -7944,7 +8536,7 @@
         <v>1780</v>
       </c>
       <c r="F193" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -7956,13 +8548,16 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>31.2</v>
+        <v>6.08</v>
+      </c>
+      <c r="K193" t="s">
+        <v>231</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -7979,7 +8574,7 @@
         <v>628</v>
       </c>
       <c r="F194" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -7990,14 +8585,17 @@
       <c r="I194">
         <v>0</v>
       </c>
+      <c r="J194" t="s">
+        <v>231</v>
+      </c>
       <c r="K194">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8014,7 +8612,7 @@
         <v>628</v>
       </c>
       <c r="F195" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -8026,13 +8624,16 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K195" t="s">
+        <v>231</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8049,7 +8650,7 @@
         <v>2722</v>
       </c>
       <c r="F196" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -8060,14 +8661,17 @@
       <c r="I196">
         <v>0</v>
       </c>
+      <c r="J196" t="s">
+        <v>231</v>
+      </c>
       <c r="K196">
-        <v>12.58</v>
+        <v>4.84</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8084,7 +8688,7 @@
         <v>2722</v>
       </c>
       <c r="F197" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -8096,13 +8700,16 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>12.58</v>
+        <v>4.84</v>
+      </c>
+      <c r="K197" t="s">
+        <v>231</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8119,7 +8726,7 @@
         <v>1780</v>
       </c>
       <c r="F198" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -8130,14 +8737,17 @@
       <c r="I198">
         <v>0</v>
       </c>
+      <c r="J198" t="s">
+        <v>231</v>
+      </c>
       <c r="K198">
-        <v>3172.5</v>
+        <v>215.5</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8166,13 +8776,16 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>3172.5</v>
+        <v>215.5</v>
+      </c>
+      <c r="K199" t="s">
+        <v>231</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8189,7 +8802,7 @@
         <v>1780</v>
       </c>
       <c r="F200" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -8200,14 +8813,17 @@
       <c r="I200">
         <v>0</v>
       </c>
+      <c r="J200" t="s">
+        <v>231</v>
+      </c>
       <c r="K200">
-        <v>743.75</v>
+        <v>53.58</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8224,7 +8840,7 @@
         <v>1780</v>
       </c>
       <c r="F201" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -8236,13 +8852,16 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>743.75</v>
+        <v>53.58</v>
+      </c>
+      <c r="K201" t="s">
+        <v>231</v>
       </c>
       <c r="L201">
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8259,7 +8878,7 @@
         <v>1889</v>
       </c>
       <c r="F202" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -8270,14 +8889,17 @@
       <c r="I202">
         <v>0</v>
       </c>
+      <c r="J202" t="s">
+        <v>231</v>
+      </c>
       <c r="K202">
-        <v>169.67</v>
+        <v>15.31</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8294,7 +8916,7 @@
         <v>1889</v>
       </c>
       <c r="F203" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -8306,13 +8928,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>169.67</v>
+        <v>15.31</v>
+      </c>
+      <c r="K203" t="s">
+        <v>231</v>
       </c>
       <c r="L203">
         <v>1</v>
       </c>
       <c r="M203" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -8341,13 +8966,16 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>3195.27</v>
+        <v>217.02</v>
+      </c>
+      <c r="K204" t="s">
+        <v>231</v>
       </c>
       <c r="L204">
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -8375,14 +9003,17 @@
       <c r="I205">
         <v>0</v>
       </c>
+      <c r="J205" t="s">
+        <v>231</v>
+      </c>
       <c r="K205">
-        <v>3195.27</v>
+        <v>217.02</v>
       </c>
       <c r="L205">
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -8411,13 +9042,16 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>2505.7399999999998</v>
+        <v>171.05</v>
+      </c>
+      <c r="K206" t="s">
+        <v>231</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -8445,14 +9079,17 @@
       <c r="I207">
         <v>0</v>
       </c>
+      <c r="J207" t="s">
+        <v>231</v>
+      </c>
       <c r="K207">
-        <v>2505.7399999999998</v>
+        <v>171.05</v>
       </c>
       <c r="L207">
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -8481,13 +9118,16 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>720.6</v>
+        <v>52.04</v>
+      </c>
+      <c r="K208" t="s">
+        <v>231</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -8515,14 +9155,17 @@
       <c r="I209">
         <v>0</v>
       </c>
+      <c r="J209" t="s">
+        <v>231</v>
+      </c>
       <c r="K209">
-        <v>720.6</v>
+        <v>52.04</v>
       </c>
       <c r="L209">
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -8551,13 +9194,16 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>312.49</v>
+        <v>24.83</v>
+      </c>
+      <c r="K210" t="s">
+        <v>231</v>
       </c>
       <c r="L210">
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -8585,14 +9231,17 @@
       <c r="I211">
         <v>0</v>
       </c>
+      <c r="J211" t="s">
+        <v>231</v>
+      </c>
       <c r="K211">
-        <v>312.49</v>
+        <v>24.83</v>
       </c>
       <c r="L211">
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -8621,13 +9270,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>1259.74</v>
+        <v>87.98</v>
+      </c>
+      <c r="K212" t="s">
+        <v>231</v>
       </c>
       <c r="L212">
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -8655,14 +9307,17 @@
       <c r="I213">
         <v>0</v>
       </c>
+      <c r="J213" t="s">
+        <v>231</v>
+      </c>
       <c r="K213">
-        <v>1259.74</v>
+        <v>87.98</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -8690,14 +9345,17 @@
       <c r="I214">
         <v>0</v>
       </c>
+      <c r="J214" t="s">
+        <v>231</v>
+      </c>
       <c r="K214">
-        <v>10000</v>
+        <v>670.67</v>
       </c>
       <c r="L214">
         <v>1</v>
       </c>
       <c r="M214" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -8726,13 +9384,16 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>10000</v>
+        <v>670.67</v>
+      </c>
+      <c r="K215" t="s">
+        <v>231</v>
       </c>
       <c r="L215">
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -8760,14 +9421,17 @@
       <c r="I216">
         <v>0</v>
       </c>
+      <c r="J216" t="s">
+        <v>231</v>
+      </c>
       <c r="K216">
-        <v>3956.4</v>
+        <v>267.76</v>
       </c>
       <c r="L216">
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -8796,13 +9460,16 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>3956.4</v>
+        <v>267.76</v>
+      </c>
+      <c r="K217" t="s">
+        <v>231</v>
       </c>
       <c r="L217">
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -8819,7 +9486,7 @@
         <v>1780</v>
       </c>
       <c r="F218" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -8830,14 +9497,17 @@
       <c r="I218">
         <v>0</v>
       </c>
+      <c r="J218" t="s">
+        <v>231</v>
+      </c>
       <c r="K218">
-        <v>61.42</v>
+        <v>8.09</v>
       </c>
       <c r="L218">
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -8854,7 +9524,7 @@
         <v>1780</v>
       </c>
       <c r="F219" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -8866,13 +9536,16 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>61.42</v>
+        <v>8.09</v>
+      </c>
+      <c r="K219" t="s">
+        <v>231</v>
       </c>
       <c r="L219">
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,7 +9562,7 @@
         <v>1780</v>
       </c>
       <c r="F220" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -8900,14 +9573,17 @@
       <c r="I220">
         <v>0</v>
       </c>
+      <c r="J220" t="s">
+        <v>231</v>
+      </c>
       <c r="K220">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L220">
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -8924,7 +9600,7 @@
         <v>1780</v>
       </c>
       <c r="F221" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -8936,13 +9612,16 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="K221" t="s">
+        <v>231</v>
       </c>
       <c r="L221">
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -8959,7 +9638,7 @@
         <v>1775</v>
       </c>
       <c r="F222" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -8970,14 +9649,17 @@
       <c r="I222">
         <v>0</v>
       </c>
+      <c r="J222" t="s">
+        <v>231</v>
+      </c>
       <c r="K222">
-        <v>1725.37</v>
+        <v>119.02</v>
       </c>
       <c r="L222">
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -8994,7 +9676,7 @@
         <v>1775</v>
       </c>
       <c r="F223" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -9006,13 +9688,16 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>1725.37</v>
+        <v>119.02</v>
+      </c>
+      <c r="K223" t="s">
+        <v>231</v>
       </c>
       <c r="L223">
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9029,7 +9714,7 @@
         <v>1780</v>
       </c>
       <c r="F224" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -9040,14 +9725,17 @@
       <c r="I224">
         <v>0</v>
       </c>
+      <c r="J224" t="s">
+        <v>231</v>
+      </c>
       <c r="K224">
-        <v>926.59</v>
+        <v>65.77</v>
       </c>
       <c r="L224">
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9064,7 +9752,7 @@
         <v>1780</v>
       </c>
       <c r="F225" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -9076,13 +9764,16 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>926.59</v>
+        <v>65.77</v>
+      </c>
+      <c r="K225" t="s">
+        <v>231</v>
       </c>
       <c r="L225">
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9099,7 +9790,7 @@
         <v>1780</v>
       </c>
       <c r="F226" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -9110,14 +9801,17 @@
       <c r="I226">
         <v>0</v>
       </c>
+      <c r="J226" t="s">
+        <v>231</v>
+      </c>
       <c r="K226">
-        <v>3271.06</v>
+        <v>222.07</v>
       </c>
       <c r="L226">
         <v>1</v>
       </c>
       <c r="M226" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9134,7 +9828,7 @@
         <v>1780</v>
       </c>
       <c r="F227" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -9146,13 +9840,16 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>3271.06</v>
+        <v>222.07</v>
+      </c>
+      <c r="K227" t="s">
+        <v>231</v>
       </c>
       <c r="L227">
         <v>1</v>
       </c>
       <c r="M227" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9180,14 +9877,17 @@
       <c r="I228">
         <v>0</v>
       </c>
+      <c r="J228" t="s">
+        <v>231</v>
+      </c>
       <c r="K228">
-        <v>10000</v>
+        <v>670.67</v>
       </c>
       <c r="L228">
         <v>1</v>
       </c>
       <c r="M228" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -9216,13 +9916,16 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>10000</v>
+        <v>670.67</v>
+      </c>
+      <c r="K229" t="s">
+        <v>231</v>
       </c>
       <c r="L229">
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -9239,7 +9942,7 @@
         <v>1789</v>
       </c>
       <c r="F230" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -9250,14 +9953,17 @@
       <c r="I230">
         <v>0</v>
       </c>
+      <c r="J230" t="s">
+        <v>231</v>
+      </c>
       <c r="K230">
-        <v>1201.8</v>
+        <v>84.12</v>
       </c>
       <c r="L230">
         <v>1</v>
       </c>
       <c r="M230" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -9274,7 +9980,7 @@
         <v>1789</v>
       </c>
       <c r="F231" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -9286,13 +9992,16 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>1201.8</v>
+        <v>84.12</v>
+      </c>
+      <c r="K231" t="s">
+        <v>231</v>
       </c>
       <c r="L231">
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -9320,14 +10029,17 @@
       <c r="I232">
         <v>0</v>
       </c>
+      <c r="J232" t="s">
+        <v>231</v>
+      </c>
       <c r="K232">
-        <v>42.35</v>
+        <v>6.82</v>
       </c>
       <c r="L232">
         <v>1</v>
       </c>
       <c r="M232" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -9356,13 +10068,16 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>42.35</v>
+        <v>6.82</v>
+      </c>
+      <c r="K233" t="s">
+        <v>231</v>
       </c>
       <c r="L233">
         <v>1</v>
       </c>
       <c r="M233" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -9379,7 +10094,7 @@
         <v>2522</v>
       </c>
       <c r="F234" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -9390,14 +10105,17 @@
       <c r="I234">
         <v>0</v>
       </c>
+      <c r="J234" t="s">
+        <v>231</v>
+      </c>
       <c r="K234">
-        <v>81.400000000000006</v>
+        <v>9.43</v>
       </c>
       <c r="L234">
         <v>1</v>
       </c>
       <c r="M234" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -9414,7 +10132,7 @@
         <v>2522</v>
       </c>
       <c r="F235" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -9426,13 +10144,16 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>81.400000000000006</v>
+        <v>9.43</v>
+      </c>
+      <c r="K235" t="s">
+        <v>231</v>
       </c>
       <c r="L235">
         <v>1</v>
       </c>
       <c r="M235" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -9449,7 +10170,7 @@
         <v>628</v>
       </c>
       <c r="F236" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -9460,14 +10181,17 @@
       <c r="I236">
         <v>0</v>
       </c>
+      <c r="J236" t="s">
+        <v>231</v>
+      </c>
       <c r="K236">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L236">
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -9484,7 +10208,7 @@
         <v>628</v>
       </c>
       <c r="F237" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -9496,13 +10220,16 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K237" t="s">
+        <v>231</v>
       </c>
       <c r="L237">
         <v>1</v>
       </c>
       <c r="M237" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -9519,7 +10246,7 @@
         <v>1789</v>
       </c>
       <c r="F238" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -9530,14 +10257,17 @@
       <c r="I238">
         <v>0</v>
       </c>
+      <c r="J238" t="s">
+        <v>231</v>
+      </c>
       <c r="K238">
-        <v>332000</v>
+        <v>22137.33</v>
       </c>
       <c r="L238">
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -9554,7 +10284,7 @@
         <v>1789</v>
       </c>
       <c r="F239" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -9566,13 +10296,16 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>332000</v>
+        <v>22137.33</v>
+      </c>
+      <c r="K239" t="s">
+        <v>231</v>
       </c>
       <c r="L239">
         <v>1</v>
       </c>
       <c r="M239" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -9589,7 +10322,7 @@
         <v>1789</v>
       </c>
       <c r="F240" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -9601,13 +10334,16 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>5810</v>
+        <v>391.33</v>
+      </c>
+      <c r="K240" t="s">
+        <v>231</v>
       </c>
       <c r="L240">
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -9624,7 +10360,7 @@
         <v>1789</v>
       </c>
       <c r="F241" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -9635,14 +10371,17 @@
       <c r="I241">
         <v>0</v>
       </c>
+      <c r="J241" t="s">
+        <v>231</v>
+      </c>
       <c r="K241">
-        <v>5810</v>
+        <v>391.33</v>
       </c>
       <c r="L241">
         <v>1</v>
       </c>
       <c r="M241" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -9659,7 +10398,7 @@
         <v>2722</v>
       </c>
       <c r="F242" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -9670,14 +10409,17 @@
       <c r="I242">
         <v>0</v>
       </c>
+      <c r="J242" t="s">
+        <v>231</v>
+      </c>
       <c r="K242">
-        <v>45245.55</v>
+        <v>3020.37</v>
       </c>
       <c r="L242">
         <v>1</v>
       </c>
       <c r="M242" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -9694,7 +10436,7 @@
         <v>2722</v>
       </c>
       <c r="F243" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -9706,13 +10448,16 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>45245.55</v>
+        <v>3020.37</v>
+      </c>
+      <c r="K243" t="s">
+        <v>231</v>
       </c>
       <c r="L243">
         <v>1</v>
       </c>
       <c r="M243" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -9729,7 +10474,7 @@
         <v>1780</v>
       </c>
       <c r="F244" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -9740,14 +10485,17 @@
       <c r="I244">
         <v>0</v>
       </c>
+      <c r="J244" t="s">
+        <v>231</v>
+      </c>
       <c r="K244">
-        <v>1957</v>
+        <v>134.47</v>
       </c>
       <c r="L244">
         <v>1</v>
       </c>
       <c r="M244" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -9764,7 +10512,7 @@
         <v>1780</v>
       </c>
       <c r="F245" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -9776,13 +10524,16 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>1957</v>
+        <v>134.47</v>
+      </c>
+      <c r="K245" t="s">
+        <v>231</v>
       </c>
       <c r="L245">
         <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -9799,7 +10550,7 @@
         <v>1343</v>
       </c>
       <c r="F246" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -9811,13 +10562,16 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>1343.68</v>
+        <v>93.58</v>
+      </c>
+      <c r="K246" t="s">
+        <v>231</v>
       </c>
       <c r="L246">
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -9834,7 +10588,7 @@
         <v>1343</v>
       </c>
       <c r="F247" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -9845,14 +10599,17 @@
       <c r="I247">
         <v>0</v>
       </c>
+      <c r="J247" t="s">
+        <v>231</v>
+      </c>
       <c r="K247">
-        <v>1343.68</v>
+        <v>93.58</v>
       </c>
       <c r="L247">
         <v>1</v>
       </c>
       <c r="M247" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -9869,7 +10626,7 @@
         <v>1780</v>
       </c>
       <c r="F248" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -9880,14 +10637,17 @@
       <c r="I248">
         <v>0</v>
       </c>
+      <c r="J248" t="s">
+        <v>231</v>
+      </c>
       <c r="K248">
-        <v>743.75</v>
+        <v>53.58</v>
       </c>
       <c r="L248">
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -9904,7 +10664,7 @@
         <v>1780</v>
       </c>
       <c r="F249" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -9916,13 +10676,16 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>743.75</v>
+        <v>53.58</v>
+      </c>
+      <c r="K249" t="s">
+        <v>231</v>
       </c>
       <c r="L249">
         <v>1</v>
       </c>
       <c r="M249" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -9939,7 +10702,7 @@
         <v>1780</v>
       </c>
       <c r="F250" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -9950,14 +10713,17 @@
       <c r="I250">
         <v>0</v>
       </c>
+      <c r="J250" t="s">
+        <v>231</v>
+      </c>
       <c r="K250">
-        <v>624.14</v>
+        <v>45.61</v>
       </c>
       <c r="L250">
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -9974,7 +10740,7 @@
         <v>1780</v>
       </c>
       <c r="F251" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -9986,13 +10752,16 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>624.14</v>
+        <v>45.61</v>
+      </c>
+      <c r="K251" t="s">
+        <v>231</v>
       </c>
       <c r="L251">
         <v>1</v>
       </c>
       <c r="M251" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10009,7 +10778,7 @@
         <v>2722</v>
       </c>
       <c r="F252" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -10021,13 +10790,16 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>2499.25</v>
+        <v>170.62</v>
+      </c>
+      <c r="K252" t="s">
+        <v>231</v>
       </c>
       <c r="L252">
         <v>1</v>
       </c>
       <c r="M252" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10044,7 +10816,7 @@
         <v>2722</v>
       </c>
       <c r="F253" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -10055,14 +10827,17 @@
       <c r="I253">
         <v>0</v>
       </c>
+      <c r="J253" t="s">
+        <v>231</v>
+      </c>
       <c r="K253">
-        <v>2499.25</v>
+        <v>170.62</v>
       </c>
       <c r="L253">
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -10079,7 +10854,7 @@
         <v>2722</v>
       </c>
       <c r="F254" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -10091,13 +10866,16 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>720.6</v>
+        <v>52.04</v>
+      </c>
+      <c r="K254" t="s">
+        <v>231</v>
       </c>
       <c r="L254">
         <v>1</v>
       </c>
       <c r="M254" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -10114,7 +10892,7 @@
         <v>2722</v>
       </c>
       <c r="F255" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -10125,14 +10903,17 @@
       <c r="I255">
         <v>0</v>
       </c>
+      <c r="J255" t="s">
+        <v>231</v>
+      </c>
       <c r="K255">
-        <v>720.6</v>
+        <v>52.04</v>
       </c>
       <c r="L255">
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -10160,14 +10941,17 @@
       <c r="I256">
         <v>0</v>
       </c>
+      <c r="J256" t="s">
+        <v>231</v>
+      </c>
       <c r="K256">
-        <v>330000</v>
+        <v>22004</v>
       </c>
       <c r="L256">
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -10196,13 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>330000</v>
+        <v>22004</v>
+      </c>
+      <c r="K257" t="s">
+        <v>231</v>
       </c>
       <c r="L257">
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -10219,7 +11006,7 @@
         <v>2722</v>
       </c>
       <c r="F258" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -10231,13 +11018,16 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>294.56</v>
+        <v>23.64</v>
+      </c>
+      <c r="K258" t="s">
+        <v>231</v>
       </c>
       <c r="L258">
         <v>1</v>
       </c>
       <c r="M258" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -10254,7 +11044,7 @@
         <v>2722</v>
       </c>
       <c r="F259" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -10265,14 +11055,17 @@
       <c r="I259">
         <v>0</v>
       </c>
+      <c r="J259" t="s">
+        <v>231</v>
+      </c>
       <c r="K259">
-        <v>294.56</v>
+        <v>23.64</v>
       </c>
       <c r="L259">
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -10289,7 +11082,7 @@
         <v>2722</v>
       </c>
       <c r="F260" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -10301,13 +11094,16 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>1187.67</v>
+        <v>83.18</v>
+      </c>
+      <c r="K260" t="s">
+        <v>231</v>
       </c>
       <c r="L260">
         <v>1</v>
       </c>
       <c r="M260" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,7 +11120,7 @@
         <v>2722</v>
       </c>
       <c r="F261" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -10335,14 +11131,17 @@
       <c r="I261">
         <v>0</v>
       </c>
+      <c r="J261" t="s">
+        <v>231</v>
+      </c>
       <c r="K261">
-        <v>1187.67</v>
+        <v>83.18</v>
       </c>
       <c r="L261">
         <v>1</v>
       </c>
       <c r="M261" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -10359,7 +11158,7 @@
         <v>2722</v>
       </c>
       <c r="F262" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -10371,13 +11170,16 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>4127.3900000000003</v>
+        <v>279.16000000000003</v>
+      </c>
+      <c r="K262" t="s">
+        <v>231</v>
       </c>
       <c r="L262">
         <v>1</v>
       </c>
       <c r="M262" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -10394,7 +11196,7 @@
         <v>2722</v>
       </c>
       <c r="F263" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -10405,14 +11207,17 @@
       <c r="I263">
         <v>0</v>
       </c>
+      <c r="J263" t="s">
+        <v>231</v>
+      </c>
       <c r="K263">
-        <v>4127.3900000000003</v>
+        <v>279.16000000000003</v>
       </c>
       <c r="L263">
         <v>1</v>
       </c>
       <c r="M263" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -10429,7 +11234,7 @@
         <v>2522</v>
       </c>
       <c r="F264" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -10440,14 +11245,17 @@
       <c r="I264">
         <v>0</v>
       </c>
+      <c r="J264" t="s">
+        <v>231</v>
+      </c>
       <c r="K264">
-        <v>3976.57</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="L264">
         <v>1</v>
       </c>
       <c r="M264" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -10464,7 +11272,7 @@
         <v>2522</v>
       </c>
       <c r="F265" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -10476,13 +11284,16 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>3976.57</v>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="K265" t="s">
+        <v>231</v>
       </c>
       <c r="L265">
         <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -10499,7 +11310,7 @@
         <v>1889</v>
       </c>
       <c r="F266" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -10510,14 +11321,17 @@
       <c r="I266">
         <v>0</v>
       </c>
+      <c r="J266" t="s">
+        <v>231</v>
+      </c>
       <c r="K266">
-        <v>28.23</v>
+        <v>5.88</v>
       </c>
       <c r="L266">
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -10534,7 +11348,7 @@
         <v>1889</v>
       </c>
       <c r="F267" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -10546,13 +11360,16 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>28.23</v>
+        <v>5.88</v>
+      </c>
+      <c r="K267" t="s">
+        <v>231</v>
       </c>
       <c r="L267">
         <v>1</v>
       </c>
       <c r="M267" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -10569,7 +11386,7 @@
         <v>1789</v>
       </c>
       <c r="F268" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -10580,14 +11397,17 @@
       <c r="I268">
         <v>0</v>
       </c>
+      <c r="J268" t="s">
+        <v>231</v>
+      </c>
       <c r="K268">
-        <v>2190.64</v>
+        <v>150.04</v>
       </c>
       <c r="L268">
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -10604,7 +11424,7 @@
         <v>1789</v>
       </c>
       <c r="F269" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -10616,13 +11436,16 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <v>2190.64</v>
+        <v>150.04</v>
+      </c>
+      <c r="K269" t="s">
+        <v>231</v>
       </c>
       <c r="L269">
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -10639,7 +11462,7 @@
         <v>1789</v>
       </c>
       <c r="F270" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -10650,14 +11473,17 @@
       <c r="I270">
         <v>0</v>
       </c>
+      <c r="J270" t="s">
+        <v>231</v>
+      </c>
       <c r="K270">
-        <v>7564.52</v>
+        <v>508.3</v>
       </c>
       <c r="L270">
         <v>1</v>
       </c>
       <c r="M270" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -10674,7 +11500,7 @@
         <v>1789</v>
       </c>
       <c r="F271" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -10686,13 +11512,16 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>7564.52</v>
+        <v>508.3</v>
+      </c>
+      <c r="K271" t="s">
+        <v>231</v>
       </c>
       <c r="L271">
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -10709,7 +11538,7 @@
         <v>2722</v>
       </c>
       <c r="F272" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -10720,14 +11549,17 @@
       <c r="I272">
         <v>0</v>
       </c>
+      <c r="J272" t="s">
+        <v>231</v>
+      </c>
       <c r="K272">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="L272">
         <v>1</v>
       </c>
       <c r="M272" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -10744,7 +11576,7 @@
         <v>2722</v>
       </c>
       <c r="F273" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -10756,13 +11588,16 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>4441.45</v>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="K273" t="s">
+        <v>231</v>
       </c>
       <c r="L273">
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -10779,7 +11614,7 @@
         <v>1780</v>
       </c>
       <c r="F274" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -10790,14 +11625,17 @@
       <c r="I274">
         <v>0</v>
       </c>
+      <c r="J274" t="s">
+        <v>231</v>
+      </c>
       <c r="K274">
-        <v>1740.65</v>
+        <v>120.04</v>
       </c>
       <c r="L274">
         <v>1</v>
       </c>
       <c r="M274" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -10814,7 +11652,7 @@
         <v>1780</v>
       </c>
       <c r="F275" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -10826,13 +11664,16 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>1740.65</v>
+        <v>120.04</v>
+      </c>
+      <c r="K275" t="s">
+        <v>231</v>
       </c>
       <c r="L275">
         <v>1</v>
       </c>
       <c r="M275" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -10849,7 +11690,7 @@
         <v>2722</v>
       </c>
       <c r="F276" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -10860,14 +11701,17 @@
       <c r="I276">
         <v>0</v>
       </c>
+      <c r="J276" t="s">
+        <v>231</v>
+      </c>
       <c r="K276">
-        <v>2898.14</v>
+        <v>197.21</v>
       </c>
       <c r="L276">
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -10884,7 +11728,7 @@
         <v>2722</v>
       </c>
       <c r="F277" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -10896,13 +11740,16 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>2898.14</v>
+        <v>197.21</v>
+      </c>
+      <c r="K277" t="s">
+        <v>231</v>
       </c>
       <c r="L277">
         <v>1</v>
       </c>
       <c r="M277" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -10931,13 +11778,16 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>279.5</v>
+        <v>22.63</v>
+      </c>
+      <c r="K278" t="s">
+        <v>231</v>
       </c>
       <c r="L278">
         <v>1</v>
       </c>
       <c r="M278" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -10965,14 +11815,17 @@
       <c r="I279">
         <v>0</v>
       </c>
+      <c r="J279" t="s">
+        <v>231</v>
+      </c>
       <c r="K279">
-        <v>279.5</v>
+        <v>22.63</v>
       </c>
       <c r="L279">
         <v>1</v>
       </c>
       <c r="M279" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -10989,7 +11842,7 @@
         <v>1789</v>
       </c>
       <c r="F280" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -11000,14 +11853,17 @@
       <c r="I280">
         <v>0</v>
       </c>
+      <c r="J280" t="s">
+        <v>231</v>
+      </c>
       <c r="K280">
-        <v>3269.35</v>
+        <v>221.96</v>
       </c>
       <c r="L280">
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -11024,7 +11880,7 @@
         <v>1789</v>
       </c>
       <c r="F281" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -11036,13 +11892,16 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>3269.35</v>
+        <v>221.96</v>
+      </c>
+      <c r="K281" t="s">
+        <v>231</v>
       </c>
       <c r="L281">
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -11059,7 +11918,7 @@
         <v>1780</v>
       </c>
       <c r="F282" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -11070,14 +11929,17 @@
       <c r="I282">
         <v>0</v>
       </c>
+      <c r="J282" t="s">
+        <v>231</v>
+      </c>
       <c r="K282">
-        <v>174.11</v>
+        <v>15.61</v>
       </c>
       <c r="L282">
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -11094,7 +11956,7 @@
         <v>1780</v>
       </c>
       <c r="F283" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -11106,13 +11968,16 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>174.11</v>
+        <v>15.61</v>
+      </c>
+      <c r="K283" t="s">
+        <v>231</v>
       </c>
       <c r="L283">
         <v>1</v>
       </c>
       <c r="M283" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -11129,7 +11994,7 @@
         <v>1789</v>
       </c>
       <c r="F284" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -11140,14 +12005,17 @@
       <c r="I284">
         <v>0</v>
       </c>
+      <c r="J284" t="s">
+        <v>231</v>
+      </c>
       <c r="K284">
-        <v>12.55</v>
+        <v>4.84</v>
       </c>
       <c r="L284">
         <v>1</v>
       </c>
       <c r="M284" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -11164,7 +12032,7 @@
         <v>1789</v>
       </c>
       <c r="F285" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -11176,13 +12044,16 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>12.55</v>
+        <v>4.84</v>
+      </c>
+      <c r="K285" t="s">
+        <v>231</v>
       </c>
       <c r="L285">
         <v>1</v>
       </c>
       <c r="M285" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -11199,7 +12070,7 @@
         <v>2722</v>
       </c>
       <c r="F286" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -11210,14 +12081,17 @@
       <c r="I286">
         <v>0</v>
       </c>
+      <c r="J286" t="s">
+        <v>231</v>
+      </c>
       <c r="K286">
-        <v>281.69</v>
+        <v>22.78</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
       <c r="M286" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -11234,7 +12108,7 @@
         <v>2722</v>
       </c>
       <c r="F287" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -11246,13 +12120,16 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>281.69</v>
+        <v>22.78</v>
+      </c>
+      <c r="K287" t="s">
+        <v>231</v>
       </c>
       <c r="L287">
         <v>1</v>
       </c>
       <c r="M287" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -11269,7 +12146,7 @@
         <v>1789</v>
       </c>
       <c r="F288" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -11280,14 +12157,17 @@
       <c r="I288">
         <v>0</v>
       </c>
+      <c r="J288" t="s">
+        <v>231</v>
+      </c>
       <c r="K288">
-        <v>15970.16</v>
+        <v>1068.68</v>
       </c>
       <c r="L288">
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -11304,7 +12184,7 @@
         <v>1789</v>
       </c>
       <c r="F289" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -11316,13 +12196,16 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <v>15970.16</v>
+        <v>1068.68</v>
+      </c>
+      <c r="K289" t="s">
+        <v>231</v>
       </c>
       <c r="L289">
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -11339,7 +12222,7 @@
         <v>1789</v>
       </c>
       <c r="F290" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -11350,14 +12233,17 @@
       <c r="I290">
         <v>0</v>
       </c>
+      <c r="J290" t="s">
+        <v>231</v>
+      </c>
       <c r="K290">
-        <v>3996.73</v>
+        <v>270.45</v>
       </c>
       <c r="L290">
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -11374,7 +12260,7 @@
         <v>1789</v>
       </c>
       <c r="F291" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -11386,13 +12272,16 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>3996.73</v>
+        <v>270.45</v>
+      </c>
+      <c r="K291" t="s">
+        <v>231</v>
       </c>
       <c r="L291">
         <v>1</v>
       </c>
       <c r="M291" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -11420,14 +12309,17 @@
       <c r="I292">
         <v>0</v>
       </c>
+      <c r="J292" t="s">
+        <v>231</v>
+      </c>
       <c r="K292">
-        <v>12100</v>
+        <v>810.67</v>
       </c>
       <c r="L292">
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -11456,13 +12348,16 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <v>12100</v>
+        <v>810.67</v>
+      </c>
+      <c r="K293" t="s">
+        <v>231</v>
       </c>
       <c r="L293">
         <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -11479,7 +12374,7 @@
         <v>2522</v>
       </c>
       <c r="F294" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -11490,14 +12385,17 @@
       <c r="I294">
         <v>0</v>
       </c>
+      <c r="J294" t="s">
+        <v>231</v>
+      </c>
       <c r="K294">
-        <v>81.400000000000006</v>
+        <v>9.43</v>
       </c>
       <c r="L294">
         <v>1</v>
       </c>
       <c r="M294" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -11514,7 +12412,7 @@
         <v>2522</v>
       </c>
       <c r="F295" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -11526,13 +12424,16 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>81.400000000000006</v>
+        <v>9.43</v>
+      </c>
+      <c r="K295" t="s">
+        <v>231</v>
       </c>
       <c r="L295">
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -11549,7 +12450,7 @@
         <v>2722</v>
       </c>
       <c r="F296" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -11561,13 +12462,16 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <v>1575</v>
+        <v>109</v>
+      </c>
+      <c r="K296" t="s">
+        <v>231</v>
       </c>
       <c r="L296">
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -11584,7 +12488,7 @@
         <v>2722</v>
       </c>
       <c r="F297" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -11595,14 +12499,17 @@
       <c r="I297">
         <v>0</v>
       </c>
+      <c r="J297" t="s">
+        <v>231</v>
+      </c>
       <c r="K297">
-        <v>1575</v>
+        <v>109</v>
       </c>
       <c r="L297">
         <v>1</v>
       </c>
       <c r="M297" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -11619,7 +12526,7 @@
         <v>2722</v>
       </c>
       <c r="F298" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -11630,14 +12537,17 @@
       <c r="I298">
         <v>0</v>
       </c>
+      <c r="J298" t="s">
+        <v>231</v>
+      </c>
       <c r="K298">
-        <v>28680.51</v>
+        <v>1916.03</v>
       </c>
       <c r="L298">
         <v>1</v>
       </c>
       <c r="M298" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -11654,7 +12564,7 @@
         <v>2722</v>
       </c>
       <c r="F299" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -11666,13 +12576,16 @@
         <v>0</v>
       </c>
       <c r="J299">
-        <v>28680.51</v>
+        <v>1916.03</v>
+      </c>
+      <c r="K299" t="s">
+        <v>231</v>
       </c>
       <c r="L299">
         <v>1</v>
       </c>
       <c r="M299" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -11689,7 +12602,7 @@
         <v>2722</v>
       </c>
       <c r="F300" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -11701,13 +12614,16 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>5606.95</v>
+        <v>377.8</v>
+      </c>
+      <c r="K300" t="s">
+        <v>231</v>
       </c>
       <c r="L300">
         <v>1</v>
       </c>
       <c r="M300" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -11724,7 +12640,7 @@
         <v>2722</v>
       </c>
       <c r="F301" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -11735,14 +12651,17 @@
       <c r="I301">
         <v>0</v>
       </c>
+      <c r="J301" t="s">
+        <v>231</v>
+      </c>
       <c r="K301">
-        <v>5606.95</v>
+        <v>377.8</v>
       </c>
       <c r="L301">
         <v>1</v>
       </c>
       <c r="M301" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -11771,13 +12690,16 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>1790.49</v>
+        <v>123.37</v>
+      </c>
+      <c r="K302" t="s">
+        <v>231</v>
       </c>
       <c r="L302">
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -11805,14 +12727,17 @@
       <c r="I303">
         <v>0</v>
       </c>
+      <c r="J303" t="s">
+        <v>231</v>
+      </c>
       <c r="K303">
-        <v>1790.49</v>
+        <v>123.37</v>
       </c>
       <c r="L303">
         <v>1</v>
       </c>
       <c r="M303" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -11829,7 +12754,7 @@
         <v>2722</v>
       </c>
       <c r="F304" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -11840,14 +12765,17 @@
       <c r="I304">
         <v>0</v>
       </c>
+      <c r="J304" t="s">
+        <v>231</v>
+      </c>
       <c r="K304">
-        <v>24052.28</v>
+        <v>1607.49</v>
       </c>
       <c r="L304">
         <v>1</v>
       </c>
       <c r="M304" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -11864,7 +12792,7 @@
         <v>2722</v>
       </c>
       <c r="F305" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -11876,13 +12804,16 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>24052.28</v>
+        <v>1607.49</v>
+      </c>
+      <c r="K305" t="s">
+        <v>231</v>
       </c>
       <c r="L305">
         <v>1</v>
       </c>
       <c r="M305" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -11899,7 +12830,7 @@
         <v>1180</v>
       </c>
       <c r="F306" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -11910,14 +12841,17 @@
       <c r="I306">
         <v>0</v>
       </c>
+      <c r="J306" t="s">
+        <v>231</v>
+      </c>
       <c r="K306">
-        <v>11024.61</v>
+        <v>738.97</v>
       </c>
       <c r="L306">
         <v>1</v>
       </c>
       <c r="M306" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -11934,7 +12868,7 @@
         <v>1180</v>
       </c>
       <c r="F307" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -11946,13 +12880,16 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <v>11024.61</v>
+        <v>738.97</v>
+      </c>
+      <c r="K307" t="s">
+        <v>231</v>
       </c>
       <c r="L307">
         <v>1</v>
       </c>
       <c r="M307" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -11969,7 +12906,7 @@
         <v>1789</v>
       </c>
       <c r="F308" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -11980,14 +12917,17 @@
       <c r="I308">
         <v>0</v>
       </c>
+      <c r="J308" t="s">
+        <v>231</v>
+      </c>
       <c r="K308">
-        <v>1040.5999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="L308">
         <v>1</v>
       </c>
       <c r="M308" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -12004,7 +12944,7 @@
         <v>1789</v>
       </c>
       <c r="F309" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -12016,13 +12956,16 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <v>1040.5999999999999</v>
+        <v>73.37</v>
+      </c>
+      <c r="K309" t="s">
+        <v>231</v>
       </c>
       <c r="L309">
         <v>1</v>
       </c>
       <c r="M309" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -12039,7 +12982,7 @@
         <v>1789</v>
       </c>
       <c r="F310" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G310">
         <v>1</v>
@@ -12050,14 +12993,17 @@
       <c r="I310">
         <v>0</v>
       </c>
+      <c r="J310" t="s">
+        <v>231</v>
+      </c>
       <c r="K310">
-        <v>1040.5999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="L310">
         <v>1</v>
       </c>
       <c r="M310" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -12074,7 +13020,7 @@
         <v>1789</v>
       </c>
       <c r="F311" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="G311">
         <v>1</v>
@@ -12086,13 +13032,16 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>1040.5999999999999</v>
+        <v>73.37</v>
+      </c>
+      <c r="K311" t="s">
+        <v>231</v>
       </c>
       <c r="L311">
         <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -12109,7 +13058,7 @@
         <v>1889</v>
       </c>
       <c r="F312" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -12120,14 +13069,17 @@
       <c r="I312">
         <v>0</v>
       </c>
+      <c r="J312" t="s">
+        <v>231</v>
+      </c>
       <c r="K312">
-        <v>10416.709999999999</v>
+        <v>698.45</v>
       </c>
       <c r="L312">
         <v>1</v>
       </c>
       <c r="M312" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -12144,7 +13096,7 @@
         <v>1889</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -12156,13 +13108,16 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <v>10416.709999999999</v>
+        <v>698.45</v>
+      </c>
+      <c r="K313" t="s">
+        <v>231</v>
       </c>
       <c r="L313">
         <v>1</v>
       </c>
       <c r="M313" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -12179,7 +13134,7 @@
         <v>1789</v>
       </c>
       <c r="F314" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -12190,14 +13145,17 @@
       <c r="I314">
         <v>0</v>
       </c>
+      <c r="J314" t="s">
+        <v>231</v>
+      </c>
       <c r="K314">
-        <v>3839.46</v>
+        <v>259.95999999999998</v>
       </c>
       <c r="L314">
         <v>1</v>
       </c>
       <c r="M314" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -12214,7 +13172,7 @@
         <v>1789</v>
       </c>
       <c r="F315" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -12226,13 +13184,16 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>3839.46</v>
+        <v>259.95999999999998</v>
+      </c>
+      <c r="K315" t="s">
+        <v>231</v>
       </c>
       <c r="L315">
         <v>1</v>
       </c>
       <c r="M315" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -12249,7 +13210,7 @@
         <v>1789</v>
       </c>
       <c r="F316" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -12260,14 +13221,17 @@
       <c r="I316">
         <v>0</v>
       </c>
+      <c r="J316" t="s">
+        <v>231</v>
+      </c>
       <c r="K316">
-        <v>3240.1</v>
+        <v>220.01</v>
       </c>
       <c r="L316">
         <v>1</v>
       </c>
       <c r="M316" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -12284,7 +13248,7 @@
         <v>1789</v>
       </c>
       <c r="F317" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -12296,13 +13260,16 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>3240.1</v>
+        <v>220.01</v>
+      </c>
+      <c r="K317" t="s">
+        <v>231</v>
       </c>
       <c r="L317">
         <v>1</v>
       </c>
       <c r="M317" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -12319,7 +13286,7 @@
         <v>1337</v>
       </c>
       <c r="F318" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -12330,14 +13297,17 @@
       <c r="I318">
         <v>0</v>
       </c>
+      <c r="J318" t="s">
+        <v>231</v>
+      </c>
       <c r="K318">
-        <v>1337.58</v>
+        <v>93.17</v>
       </c>
       <c r="L318">
         <v>1</v>
       </c>
       <c r="M318" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -12354,7 +13324,7 @@
         <v>1337</v>
       </c>
       <c r="F319" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -12366,13 +13336,16 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>1337.58</v>
+        <v>93.17</v>
+      </c>
+      <c r="K319" t="s">
+        <v>231</v>
       </c>
       <c r="L319">
         <v>1</v>
       </c>
       <c r="M319" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -12400,14 +13373,17 @@
       <c r="I320">
         <v>0</v>
       </c>
+      <c r="J320" t="s">
+        <v>231</v>
+      </c>
       <c r="K320">
-        <v>0.2</v>
+        <v>4.01</v>
       </c>
       <c r="L320">
         <v>1</v>
       </c>
       <c r="M320" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -12436,13 +13412,16 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <v>0.2</v>
+        <v>4.01</v>
+      </c>
+      <c r="K321" t="s">
+        <v>231</v>
       </c>
       <c r="L321">
         <v>1</v>
       </c>
       <c r="M321" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -12459,7 +13438,7 @@
         <v>2722</v>
       </c>
       <c r="F322" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -12470,14 +13449,17 @@
       <c r="I322">
         <v>0</v>
       </c>
+      <c r="J322" t="s">
+        <v>231</v>
+      </c>
       <c r="K322">
-        <v>76.39</v>
+        <v>9.09</v>
       </c>
       <c r="L322">
         <v>1</v>
       </c>
       <c r="M322" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -12494,7 +13476,7 @@
         <v>2722</v>
       </c>
       <c r="F323" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -12506,13 +13488,16 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <v>76.39</v>
+        <v>9.09</v>
+      </c>
+      <c r="K323" t="s">
+        <v>231</v>
       </c>
       <c r="L323">
         <v>1</v>
       </c>
       <c r="M323" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -12529,7 +13514,7 @@
         <v>1789</v>
       </c>
       <c r="F324" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -12540,14 +13525,17 @@
       <c r="I324">
         <v>0</v>
       </c>
+      <c r="J324" t="s">
+        <v>231</v>
+      </c>
       <c r="K324">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L324">
         <v>1</v>
       </c>
       <c r="M324" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -12564,7 +13552,7 @@
         <v>1789</v>
       </c>
       <c r="F325" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -12576,13 +13564,16 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>10.4</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K325" t="s">
+        <v>231</v>
       </c>
       <c r="L325">
         <v>1</v>
       </c>
       <c r="M325" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -12599,7 +13590,7 @@
         <v>2722</v>
       </c>
       <c r="F326" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -12610,14 +13601,17 @@
       <c r="I326">
         <v>0</v>
       </c>
+      <c r="J326" t="s">
+        <v>231</v>
+      </c>
       <c r="K326">
-        <v>193.97</v>
+        <v>16.93</v>
       </c>
       <c r="L326">
         <v>1</v>
       </c>
       <c r="M326" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -12634,7 +13628,7 @@
         <v>2722</v>
       </c>
       <c r="F327" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -12646,13 +13640,16 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>193.97</v>
+        <v>16.93</v>
+      </c>
+      <c r="K327" t="s">
+        <v>231</v>
       </c>
       <c r="L327">
         <v>1</v>
       </c>
       <c r="M327" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -12669,7 +13666,7 @@
         <v>1789</v>
       </c>
       <c r="F328" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -12681,13 +13678,16 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>757.1</v>
+        <v>54.47</v>
+      </c>
+      <c r="K328" t="s">
+        <v>231</v>
       </c>
       <c r="L328">
         <v>1</v>
       </c>
       <c r="M328" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -12704,7 +13704,7 @@
         <v>1789</v>
       </c>
       <c r="F329" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="G329">
         <v>1</v>
@@ -12715,14 +13715,17 @@
       <c r="I329">
         <v>0</v>
       </c>
+      <c r="J329" t="s">
+        <v>231</v>
+      </c>
       <c r="K329">
-        <v>757.1</v>
+        <v>54.47</v>
       </c>
       <c r="L329">
         <v>1</v>
       </c>
       <c r="M329" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -12739,7 +13742,7 @@
         <v>1789</v>
       </c>
       <c r="F330" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -12750,14 +13753,17 @@
       <c r="I330">
         <v>0</v>
       </c>
+      <c r="J330" t="s">
+        <v>231</v>
+      </c>
       <c r="K330">
-        <v>2202.39</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="L330">
         <v>1</v>
       </c>
       <c r="M330" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -12774,7 +13780,7 @@
         <v>1789</v>
       </c>
       <c r="F331" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -12786,13 +13792,16 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <v>2202.39</v>
+        <v>150.83000000000001</v>
+      </c>
+      <c r="K331" t="s">
+        <v>231</v>
       </c>
       <c r="L331">
         <v>1</v>
       </c>
       <c r="M331" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -12809,7 +13818,7 @@
         <v>1789</v>
       </c>
       <c r="F332" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -12821,13 +13830,16 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>3</v>
+        <v>4.2</v>
+      </c>
+      <c r="K332" t="s">
+        <v>231</v>
       </c>
       <c r="L332">
         <v>1</v>
       </c>
       <c r="M332" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -12844,7 +13856,7 @@
         <v>1789</v>
       </c>
       <c r="F333" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -12855,14 +13867,17 @@
       <c r="I333">
         <v>0</v>
       </c>
+      <c r="J333" t="s">
+        <v>231</v>
+      </c>
       <c r="K333">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L333">
         <v>1</v>
       </c>
       <c r="M333" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -12879,7 +13894,7 @@
         <v>2722</v>
       </c>
       <c r="F334" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -12891,13 +13906,16 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>2.4</v>
+        <v>4.16</v>
+      </c>
+      <c r="K334" t="s">
+        <v>231</v>
       </c>
       <c r="L334">
         <v>1</v>
       </c>
       <c r="M334" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -12914,7 +13932,7 @@
         <v>2722</v>
       </c>
       <c r="F335" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -12925,14 +13943,17 @@
       <c r="I335">
         <v>0</v>
       </c>
+      <c r="J335" t="s">
+        <v>231</v>
+      </c>
       <c r="K335">
-        <v>2.4</v>
+        <v>4.16</v>
       </c>
       <c r="L335">
         <v>1</v>
       </c>
       <c r="M335" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -12949,7 +13970,7 @@
         <v>1789</v>
       </c>
       <c r="F336" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -12961,13 +13982,16 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>6415.78</v>
+        <v>431.72</v>
+      </c>
+      <c r="K336" t="s">
+        <v>231</v>
       </c>
       <c r="L336">
         <v>1</v>
       </c>
       <c r="M336" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -12984,7 +14008,7 @@
         <v>1789</v>
       </c>
       <c r="F337" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -12995,14 +14019,17 @@
       <c r="I337">
         <v>0</v>
       </c>
+      <c r="J337" t="s">
+        <v>231</v>
+      </c>
       <c r="K337">
-        <v>6415.78</v>
+        <v>431.72</v>
       </c>
       <c r="L337">
         <v>1</v>
       </c>
       <c r="M337" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
